--- a/Tree-timing.xlsx
+++ b/Tree-timing.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="8580" windowHeight="4512" tabRatio="253" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="48" windowWidth="8580" windowHeight="4512" tabRatio="253" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="1" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -93,44 +93,64 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поиск</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> элемента</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.300240594925635E-2"/>
-          <c:y val="4.6770924467774866E-2"/>
-          <c:w val="0.50687248468941382"/>
-          <c:h val="0.8326195683872849"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время работы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:trendline>
-            <c:spPr>
-              <a:effectLst>
-                <a:softEdge rad="0"/>
-              </a:effectLst>
-            </c:spPr>
             <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.4919575678040245"/>
-                  <c:y val="-0.10860320944309108"/>
+                  <c:x val="0.43726771653543306"/>
+                  <c:y val="2.7418698083005948E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -179,37 +199,37 @@
             <c:numRef>
               <c:f>Лист1!$M$2:$M$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.6</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.2</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.299999999999997</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.4</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.3</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.200000000000003</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.700000000000003</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.6</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -224,11 +244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90401600"/>
-        <c:axId val="90401024"/>
+        <c:axId val="42392896"/>
+        <c:axId val="56147968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90401600"/>
+        <c:axId val="42392896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -238,29 +258,33 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90401024"/>
+        <c:crossAx val="56147968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90401024"/>
+        <c:axId val="56147968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90401600"/>
+        <c:crossAx val="42392896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -291,6 +315,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Добавление</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> элемента</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -305,7 +349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$M$1</c:f>
+              <c:f>Лист2!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -326,8 +370,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.43726771653543306"/>
-                  <c:y val="2.7418698083005948E-2"/>
+                  <c:x val="0.48507349081364831"/>
+                  <c:y val="-2.9375194280385451E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -335,7 +379,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$L$2:$L$11</c:f>
+              <c:f>Лист2!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -374,39 +418,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$M$2:$M$11</c:f>
+              <c:f>Лист2!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -421,11 +465,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="149539072"/>
-        <c:axId val="149538496"/>
+        <c:axId val="56150272"/>
+        <c:axId val="56150848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149539072"/>
+        <c:axId val="56150272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,12 +479,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149538496"/>
+        <c:crossAx val="56150848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149538496"/>
+        <c:axId val="56150848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149539072"/>
+        <c:crossAx val="56150272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -492,6 +536,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Удаление</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> элемента</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -506,7 +570,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист3!$K$1</c:f>
+              <c:f>Лист3!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -527,8 +591,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.48507349081364831"/>
-                  <c:y val="-2.9375194280385451E-2"/>
+                  <c:x val="0.53785126859142607"/>
+                  <c:y val="-6.2622259109326978E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -536,78 +600,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>Лист3!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Лист3!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000000</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000000</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000000</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000000</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000000</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000000</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000000</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист3!$K$2:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,11 +686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68096512"/>
-        <c:axId val="41041216"/>
+        <c:axId val="105868096"/>
+        <c:axId val="105867520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68096512"/>
+        <c:axId val="105868096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,12 +700,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41041216"/>
+        <c:crossAx val="105867520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41041216"/>
+        <c:axId val="105867520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,17 +716,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68096512"/>
+        <c:crossAx val="105868096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -679,85 +739,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>498764</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>140496</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5985164" cy="3922787"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>168728</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -836,7 +817,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -910,6 +891,85 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4213860" cy="4099560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1204,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,185 +1282,184 @@
       <c r="L2">
         <v>1000000</v>
       </c>
-      <c r="M2" s="1">
-        <v>16.399999999999999</v>
+      <c r="M2">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L3">
         <v>2000000</v>
       </c>
-      <c r="M3" s="1">
-        <v>21.8</v>
+      <c r="M3">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L4">
         <v>3000000</v>
       </c>
-      <c r="M4" s="1">
-        <v>25.6</v>
+      <c r="M4">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L5">
         <v>4000000</v>
       </c>
-      <c r="M5" s="1">
-        <v>27.2</v>
+      <c r="M5">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L6">
         <v>5000000</v>
       </c>
-      <c r="M6" s="1">
-        <v>36.299999999999997</v>
+      <c r="M6">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L7">
         <v>6000000</v>
       </c>
-      <c r="M7" s="1">
-        <v>28.4</v>
+      <c r="M7">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L8">
         <v>7000000</v>
       </c>
-      <c r="M8" s="1">
-        <v>31.3</v>
+      <c r="M8">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L9">
         <v>8000000</v>
       </c>
-      <c r="M9" s="1">
-        <v>40.200000000000003</v>
+      <c r="M9">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L10">
         <v>9000000</v>
       </c>
-      <c r="M10" s="1">
-        <v>37.700000000000003</v>
+      <c r="M10">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L11">
         <v>10000000</v>
       </c>
-      <c r="M11" s="1">
-        <v>54.6</v>
+      <c r="M11">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L1:M11"/>
+  <dimension ref="J1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L1" t="s">
+    <row r="1" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L2">
+    <row r="2" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J2">
         <v>1000000</v>
       </c>
-      <c r="M2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L3">
+      <c r="K2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J3">
         <v>2000000</v>
       </c>
-      <c r="M3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L4">
+      <c r="K3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J4">
         <v>3000000</v>
       </c>
-      <c r="M4">
+      <c r="K4">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L5">
+    <row r="5" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J5">
         <v>4000000</v>
       </c>
-      <c r="M5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L6">
+      <c r="K5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J6">
         <v>5000000</v>
       </c>
-      <c r="M6">
+      <c r="K6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>6000000</v>
+      </c>
+      <c r="K7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>7000000</v>
+      </c>
+      <c r="K8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>8000000</v>
+      </c>
+      <c r="K9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>9000000</v>
+      </c>
+      <c r="K10">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L7">
-        <v>6000000</v>
-      </c>
-      <c r="M7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L8">
-        <v>7000000</v>
-      </c>
-      <c r="M8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L9">
-        <v>8000000</v>
-      </c>
-      <c r="M9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L10">
-        <v>9000000</v>
-      </c>
-      <c r="M10">
+    <row r="11" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>10000000</v>
+      </c>
+      <c r="K11">
         <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L11">
-        <v>10000000</v>
-      </c>
-      <c r="M11">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1411,105 +1470,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J1:K11"/>
+  <dimension ref="I1:M11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
       <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>1000000</v>
+      </c>
       <c r="J2">
-        <v>1000000</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="10:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>2000000</v>
+      </c>
       <c r="J3">
-        <v>2000000</v>
-      </c>
-      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>3000000</v>
+      </c>
+      <c r="J4">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>4000000</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>5000000</v>
+      </c>
+      <c r="J6">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>6000000</v>
+      </c>
+      <c r="J7">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J4">
-        <v>3000000</v>
-      </c>
-      <c r="K4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J5">
-        <v>4000000</v>
-      </c>
-      <c r="K5">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>7000000</v>
+      </c>
+      <c r="J8">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>8000000</v>
+      </c>
+      <c r="J9">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J6">
-        <v>5000000</v>
-      </c>
-      <c r="K6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J7">
-        <v>6000000</v>
-      </c>
-      <c r="K7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J8">
-        <v>7000000</v>
-      </c>
-      <c r="K8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J9">
-        <v>8000000</v>
-      </c>
-      <c r="K9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>9000000</v>
+      </c>
       <c r="J10">
-        <v>9000000</v>
-      </c>
-      <c r="K10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="10:11" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>10000000</v>
+      </c>
       <c r="J11">
-        <v>10000000</v>
-      </c>
-      <c r="K11">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="M11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
